--- a/Chandrashekaran-annotations/TTE_Q4_2021.xlsx
+++ b/Chandrashekaran-annotations/TTE_Q4_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99671CA7-B4A8-4E35-8710-56B995A53E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A805E89-EF34-4603-8E54-D4392EA081C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,8 +562,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +628,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -640,6 +660,24 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -654,6 +692,24 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -668,6 +724,24 @@
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -682,6 +756,24 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -696,6 +788,24 @@
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -710,6 +820,24 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -724,6 +852,24 @@
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -738,6 +884,24 @@
       <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -752,6 +916,24 @@
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -766,6 +948,24 @@
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -780,6 +980,24 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -794,6 +1012,24 @@
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -808,6 +1044,24 @@
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -821,6 +1075,24 @@
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
